--- a/Consolidado_final.xlsx
+++ b/Consolidado_final.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X286"/>
+  <dimension ref="A1:V286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,16 +481,6 @@
           <t>Fecha</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 22</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 20</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -591,8 +581,6 @@
       <c r="V2" s="2" t="n">
         <v>45323</v>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -693,8 +681,6 @@
       <c r="V3" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -795,8 +781,6 @@
       <c r="V4" s="2" t="n">
         <v>45341</v>
       </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -893,8 +877,6 @@
       <c r="V5" s="2" t="n">
         <v>45337</v>
       </c>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -995,8 +977,6 @@
       <c r="V6" s="2" t="n">
         <v>45342</v>
       </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1089,8 +1069,6 @@
       <c r="V7" s="2" t="n">
         <v>45323</v>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1163,8 +1141,6 @@
       <c r="V8" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1265,8 +1241,6 @@
       <c r="V9" s="2" t="n">
         <v>45341</v>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1363,8 +1337,6 @@
       <c r="V10" s="2" t="n">
         <v>45337</v>
       </c>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1465,8 +1437,6 @@
       <c r="V11" s="2" t="n">
         <v>45342</v>
       </c>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1523,8 +1493,6 @@
       <c r="V12" s="2" t="n">
         <v>45341</v>
       </c>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1581,8 +1549,6 @@
       <c r="V13" s="2" t="n">
         <v>45337</v>
       </c>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1639,8 +1605,6 @@
       <c r="V14" s="2" t="n">
         <v>45342</v>
       </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1697,8 +1661,6 @@
       <c r="V15" s="2" t="n">
         <v>45351</v>
       </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1755,8 +1717,6 @@
       <c r="V16" s="2" t="n">
         <v>45350</v>
       </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1857,8 +1817,6 @@
       <c r="V17" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1951,8 +1909,6 @@
       <c r="V18" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2009,8 +1965,6 @@
       <c r="V19" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2071,8 +2025,6 @@
       <c r="V20" s="2" t="n">
         <v>45331</v>
       </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2161,8 +2113,6 @@
       <c r="V21" s="2" t="n">
         <v>45089</v>
       </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2259,8 +2209,6 @@
       <c r="V22" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2353,8 +2301,6 @@
       <c r="V23" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2423,8 +2369,6 @@
       <c r="V24" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2489,8 +2433,6 @@
       <c r="V25" s="2" t="n">
         <v>45331</v>
       </c>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2547,8 +2489,6 @@
       <c r="V26" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2605,8 +2545,6 @@
       <c r="V27" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2663,8 +2601,6 @@
       <c r="V28" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2721,8 +2657,6 @@
       <c r="V29" s="2" t="n">
         <v>45331</v>
       </c>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2779,8 +2713,6 @@
       <c r="V30" s="2" t="n">
         <v>45328</v>
       </c>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2841,8 +2773,6 @@
       <c r="V31" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2919,8 +2849,6 @@
       <c r="V32" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2977,8 +2905,6 @@
       <c r="V33" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3063,8 +2989,6 @@
       <c r="V34" s="2" t="n">
         <v>45330</v>
       </c>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3117,12 +3041,6 @@
       <c r="V35" s="2" t="n">
         <v>45287</v>
       </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3199,8 +3117,6 @@
       <c r="V36" s="2" t="n">
         <v>45328</v>
       </c>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3277,8 +3193,6 @@
       <c r="V37" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3335,8 +3249,6 @@
       <c r="V38" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3393,8 +3305,6 @@
       <c r="V39" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3451,8 +3361,6 @@
       <c r="V40" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3509,8 +3417,6 @@
       <c r="V41" s="2" t="n">
         <v>45324</v>
       </c>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3567,8 +3473,6 @@
       <c r="V42" s="2" t="n">
         <v>45342</v>
       </c>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3625,8 +3529,6 @@
       <c r="V43" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3683,8 +3585,6 @@
       <c r="V44" s="2" t="n">
         <v>45323</v>
       </c>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3741,8 +3641,6 @@
       <c r="V45" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3799,8 +3697,6 @@
       <c r="V46" s="2" t="n">
         <v>45350</v>
       </c>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3873,8 +3769,6 @@
       <c r="V47" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3963,8 +3857,6 @@
       <c r="V48" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4021,8 +3913,6 @@
       <c r="V49" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4079,8 +3969,6 @@
       <c r="V50" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4165,8 +4053,6 @@
       <c r="V51" s="2" t="n">
         <v>45330</v>
       </c>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4231,8 +4117,6 @@
       <c r="V52" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4313,8 +4197,6 @@
       <c r="V53" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4391,8 +4273,6 @@
       <c r="V54" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4449,8 +4329,6 @@
       <c r="V55" s="2" t="n">
         <v>45328</v>
       </c>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4507,8 +4385,6 @@
       <c r="V56" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4565,8 +4441,6 @@
       <c r="V57" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4623,8 +4497,6 @@
       <c r="V58" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4681,8 +4553,6 @@
       <c r="V59" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4739,8 +4609,6 @@
       <c r="V60" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4797,8 +4665,6 @@
       <c r="V61" s="2" t="n">
         <v>45342</v>
       </c>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4855,8 +4721,6 @@
       <c r="V62" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4917,8 +4781,6 @@
       <c r="V63" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4975,8 +4837,6 @@
       <c r="V64" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5033,8 +4893,6 @@
       <c r="V65" s="2" t="n">
         <v>45324</v>
       </c>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5091,8 +4949,6 @@
       <c r="V66" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5149,8 +5005,6 @@
       <c r="V67" s="2" t="n">
         <v>45331</v>
       </c>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5207,8 +5061,6 @@
       <c r="V68" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5265,8 +5117,6 @@
       <c r="V69" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5323,8 +5173,6 @@
       <c r="V70" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5381,8 +5229,6 @@
       <c r="V71" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5439,8 +5285,6 @@
       <c r="V72" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5497,8 +5341,6 @@
       <c r="V73" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5555,8 +5397,6 @@
       <c r="V74" s="2" t="n">
         <v>45323</v>
       </c>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5613,8 +5453,6 @@
       <c r="V75" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5671,8 +5509,6 @@
       <c r="V76" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5757,8 +5593,6 @@
       <c r="V77" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5819,8 +5653,6 @@
       <c r="V78" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5909,8 +5741,6 @@
       <c r="V79" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6007,8 +5837,6 @@
       <c r="V80" s="2" t="n">
         <v>45341</v>
       </c>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6105,8 +5933,6 @@
       <c r="V81" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6179,8 +6005,6 @@
       <c r="V82" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6249,8 +6073,6 @@
       <c r="V83" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6311,8 +6133,6 @@
       <c r="V84" s="2" t="n">
         <v>45330</v>
       </c>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6373,8 +6193,6 @@
       <c r="V85" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6431,8 +6249,6 @@
       <c r="V86" s="2" t="n">
         <v>45303</v>
       </c>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6489,8 +6305,6 @@
       <c r="V87" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6547,8 +6361,6 @@
       <c r="V88" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6605,8 +6417,6 @@
       <c r="V89" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6663,8 +6473,6 @@
       <c r="V90" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6721,8 +6529,6 @@
       <c r="V91" s="2" t="n">
         <v>45337</v>
       </c>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6783,8 +6589,6 @@
       <c r="V92" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6841,8 +6645,6 @@
       <c r="V93" s="2" t="n">
         <v>45341</v>
       </c>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6903,8 +6705,6 @@
       <c r="V94" s="2" t="n">
         <v>45337</v>
       </c>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6961,8 +6761,6 @@
       <c r="V95" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7015,12 +6813,6 @@
       <c r="V96" s="2" t="n">
         <v>45330</v>
       </c>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7077,8 +6869,6 @@
       <c r="V97" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7135,8 +6925,6 @@
       <c r="V98" s="2" t="n">
         <v>45328</v>
       </c>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7193,8 +6981,6 @@
       <c r="V99" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7251,8 +7037,6 @@
       <c r="V100" s="2" t="n">
         <v>45341</v>
       </c>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7309,8 +7093,6 @@
       <c r="V101" s="2" t="n">
         <v>45324</v>
       </c>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7367,8 +7149,6 @@
       <c r="V102" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7421,12 +7201,6 @@
       <c r="V103" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7483,8 +7257,6 @@
       <c r="V104" s="2" t="n">
         <v>45330</v>
       </c>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7541,8 +7313,6 @@
       <c r="V105" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7599,8 +7369,6 @@
       <c r="V106" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7657,8 +7425,6 @@
       <c r="V107" s="2" t="n">
         <v>45323</v>
       </c>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7715,8 +7481,6 @@
       <c r="V108" s="2" t="n">
         <v>44722</v>
       </c>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7773,8 +7537,6 @@
       <c r="V109" s="2" t="n">
         <v>45324</v>
       </c>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7831,8 +7593,6 @@
       <c r="V110" s="2" t="n">
         <v>45328</v>
       </c>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7901,8 +7661,6 @@
       <c r="V111" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7959,8 +7717,6 @@
       <c r="V112" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8017,8 +7773,6 @@
       <c r="V113" s="2" t="n">
         <v>45323</v>
       </c>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8075,8 +7829,6 @@
       <c r="V114" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8133,8 +7885,6 @@
       <c r="V115" s="2" t="n">
         <v>45324</v>
       </c>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8191,8 +7941,6 @@
       <c r="V116" s="2" t="n">
         <v>45295</v>
       </c>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8249,8 +7997,6 @@
       <c r="V117" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8307,8 +8053,6 @@
       <c r="V118" s="2" t="n">
         <v>45324</v>
       </c>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8361,12 +8105,6 @@
       <c r="V119" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="W119" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8423,8 +8161,6 @@
       <c r="V120" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8481,8 +8217,6 @@
       <c r="V121" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8543,8 +8277,6 @@
       <c r="V122" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8601,8 +8333,6 @@
       <c r="V123" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8659,8 +8389,6 @@
       <c r="V124" s="2" t="n">
         <v>45346</v>
       </c>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8721,8 +8449,6 @@
       <c r="V125" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="W125" t="inlineStr"/>
-      <c r="X125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8779,8 +8505,6 @@
       <c r="V126" s="2" t="n">
         <v>45348</v>
       </c>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8849,8 +8573,6 @@
       <c r="V127" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8907,8 +8629,6 @@
       <c r="V128" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8965,8 +8685,6 @@
       <c r="V129" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9023,8 +8741,6 @@
       <c r="V130" s="2" t="n">
         <v>45331</v>
       </c>
-      <c r="W130" t="inlineStr"/>
-      <c r="X130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9081,8 +8797,6 @@
       <c r="V131" s="2" t="n">
         <v>45346</v>
       </c>
-      <c r="W131" t="inlineStr"/>
-      <c r="X131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9139,8 +8853,6 @@
       <c r="V132" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W132" t="inlineStr"/>
-      <c r="X132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9197,8 +8909,6 @@
       <c r="V133" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9255,8 +8965,6 @@
       <c r="V134" s="2" t="n">
         <v>45324</v>
       </c>
-      <c r="W134" t="inlineStr"/>
-      <c r="X134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9313,8 +9021,6 @@
       <c r="V135" s="2" t="n">
         <v>45331</v>
       </c>
-      <c r="W135" t="inlineStr"/>
-      <c r="X135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9371,8 +9077,6 @@
       <c r="V136" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9473,8 +9177,6 @@
       <c r="V137" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9575,8 +9277,6 @@
       <c r="V138" s="2" t="n">
         <v>45328</v>
       </c>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9677,8 +9377,6 @@
       <c r="V139" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -9771,8 +9469,6 @@
       <c r="V140" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -9829,8 +9525,6 @@
       <c r="V141" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -9931,8 +9625,6 @@
       <c r="V142" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -9989,8 +9681,6 @@
       <c r="V143" s="2" t="n">
         <v>45331</v>
       </c>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10043,12 +9733,6 @@
       <c r="V144" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W144" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10137,8 +9821,6 @@
       <c r="V145" s="2" t="n">
         <v>45328</v>
       </c>
-      <c r="W145" t="inlineStr"/>
-      <c r="X145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10239,8 +9921,6 @@
       <c r="V146" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W146" t="inlineStr"/>
-      <c r="X146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10297,8 +9977,6 @@
       <c r="V147" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W147" t="inlineStr"/>
-      <c r="X147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10355,8 +10033,6 @@
       <c r="V148" s="2" t="n">
         <v>45328</v>
       </c>
-      <c r="W148" t="inlineStr"/>
-      <c r="X148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10413,8 +10089,6 @@
       <c r="V149" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W149" t="inlineStr"/>
-      <c r="X149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10471,8 +10145,6 @@
       <c r="V150" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W150" t="inlineStr"/>
-      <c r="X150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10533,8 +10205,6 @@
       <c r="V151" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W151" t="inlineStr"/>
-      <c r="X151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10591,8 +10261,6 @@
       <c r="V152" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W152" t="inlineStr"/>
-      <c r="X152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -10669,8 +10337,6 @@
       <c r="V153" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="W153" t="inlineStr"/>
-      <c r="X153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -10731,8 +10397,6 @@
       <c r="V154" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="W154" t="inlineStr"/>
-      <c r="X154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -10785,12 +10449,6 @@
       <c r="V155" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W155" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -10851,8 +10509,6 @@
       <c r="V156" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="W156" t="inlineStr"/>
-      <c r="X156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -10909,8 +10565,6 @@
       <c r="V157" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W157" t="inlineStr"/>
-      <c r="X157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11003,8 +10657,6 @@
       <c r="V158" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="W158" t="inlineStr"/>
-      <c r="X158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11061,8 +10713,6 @@
       <c r="V159" s="2" t="n">
         <v>45349</v>
       </c>
-      <c r="W159" t="inlineStr"/>
-      <c r="X159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -11119,8 +10769,6 @@
       <c r="V160" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W160" t="inlineStr"/>
-      <c r="X160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -11177,8 +10825,6 @@
       <c r="V161" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="W161" t="inlineStr"/>
-      <c r="X161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -11235,8 +10881,6 @@
       <c r="V162" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="W162" t="inlineStr"/>
-      <c r="X162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -11293,8 +10937,6 @@
       <c r="V163" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W163" t="inlineStr"/>
-      <c r="X163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -11351,8 +10993,6 @@
       <c r="V164" s="2" t="n">
         <v>45324</v>
       </c>
-      <c r="W164" t="inlineStr"/>
-      <c r="X164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11409,8 +11049,6 @@
       <c r="V165" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W165" t="inlineStr"/>
-      <c r="X165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -11467,8 +11105,6 @@
       <c r="V166" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W166" t="inlineStr"/>
-      <c r="X166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -11569,8 +11205,6 @@
       <c r="V167" s="2" t="n">
         <v>45314</v>
       </c>
-      <c r="W167" t="inlineStr"/>
-      <c r="X167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -11671,8 +11305,6 @@
       <c r="V168" s="2" t="n">
         <v>45337</v>
       </c>
-      <c r="W168" t="inlineStr"/>
-      <c r="X168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -11773,8 +11405,6 @@
       <c r="V169" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W169" t="inlineStr"/>
-      <c r="X169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -11875,8 +11505,6 @@
       <c r="V170" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W170" t="inlineStr"/>
-      <c r="X170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -11977,8 +11605,6 @@
       <c r="V171" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W171" t="inlineStr"/>
-      <c r="X171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -12079,8 +11705,6 @@
       <c r="V172" s="2" t="n">
         <v>45339</v>
       </c>
-      <c r="W172" t="inlineStr"/>
-      <c r="X172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -12181,8 +11805,6 @@
       <c r="V173" s="2" t="n">
         <v>45314</v>
       </c>
-      <c r="W173" t="inlineStr"/>
-      <c r="X173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -12283,8 +11905,6 @@
       <c r="V174" s="2" t="n">
         <v>45337</v>
       </c>
-      <c r="W174" t="inlineStr"/>
-      <c r="X174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -12385,8 +12005,6 @@
       <c r="V175" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W175" t="inlineStr"/>
-      <c r="X175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -12487,8 +12105,6 @@
       <c r="V176" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W176" t="inlineStr"/>
-      <c r="X176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -12545,8 +12161,6 @@
       <c r="V177" s="2" t="n">
         <v>45314</v>
       </c>
-      <c r="W177" t="inlineStr"/>
-      <c r="X177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -12607,8 +12221,6 @@
       <c r="V178" s="2" t="n">
         <v>45337</v>
       </c>
-      <c r="W178" t="inlineStr"/>
-      <c r="X178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -12669,8 +12281,6 @@
       <c r="V179" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W179" t="inlineStr"/>
-      <c r="X179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -12731,8 +12341,6 @@
       <c r="V180" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W180" t="inlineStr"/>
-      <c r="X180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -12793,8 +12401,6 @@
       <c r="V181" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W181" t="inlineStr"/>
-      <c r="X181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -12895,8 +12501,6 @@
       <c r="V182" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="W182" t="inlineStr"/>
-      <c r="X182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -12997,8 +12601,6 @@
       <c r="V183" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W183" t="inlineStr"/>
-      <c r="X183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -13099,8 +12701,6 @@
       <c r="V184" s="2" t="n">
         <v>45331</v>
       </c>
-      <c r="W184" t="inlineStr"/>
-      <c r="X184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -13201,8 +12801,6 @@
       <c r="V185" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W185" t="inlineStr"/>
-      <c r="X185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -13303,8 +12901,6 @@
       <c r="V186" s="2" t="n">
         <v>45351</v>
       </c>
-      <c r="W186" t="inlineStr"/>
-      <c r="X186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -13405,8 +13001,6 @@
       <c r="V187" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="W187" t="inlineStr"/>
-      <c r="X187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -13507,8 +13101,6 @@
       <c r="V188" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W188" t="inlineStr"/>
-      <c r="X188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -13609,8 +13201,6 @@
       <c r="V189" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W189" t="inlineStr"/>
-      <c r="X189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -13711,8 +13301,6 @@
       <c r="V190" s="2" t="n">
         <v>45351</v>
       </c>
-      <c r="W190" t="inlineStr"/>
-      <c r="X190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -13813,8 +13401,6 @@
       <c r="V191" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W191" t="inlineStr"/>
-      <c r="X191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -13883,8 +13469,6 @@
       <c r="V192" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W192" t="inlineStr"/>
-      <c r="X192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -13949,8 +13533,6 @@
       <c r="V193" s="2" t="n">
         <v>45351</v>
       </c>
-      <c r="W193" t="inlineStr"/>
-      <c r="X193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -14011,8 +13593,6 @@
       <c r="V194" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W194" t="inlineStr"/>
-      <c r="X194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -14073,8 +13653,6 @@
       <c r="V195" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W195" t="inlineStr"/>
-      <c r="X195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -14143,8 +13721,6 @@
       <c r="V196" s="2" t="n">
         <v>45331</v>
       </c>
-      <c r="W196" t="inlineStr"/>
-      <c r="X196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -14245,8 +13821,6 @@
       <c r="V197" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W197" t="inlineStr"/>
-      <c r="X197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -14347,8 +13921,6 @@
       <c r="V198" s="2" t="n">
         <v>45342</v>
       </c>
-      <c r="W198" t="inlineStr"/>
-      <c r="X198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -14449,8 +14021,6 @@
       <c r="V199" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W199" t="inlineStr"/>
-      <c r="X199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -14551,8 +14121,6 @@
       <c r="V200" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W200" t="inlineStr"/>
-      <c r="X200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -14653,8 +14221,6 @@
       <c r="V201" s="2" t="n">
         <v>45278</v>
       </c>
-      <c r="W201" t="inlineStr"/>
-      <c r="X201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -14755,8 +14321,6 @@
       <c r="V202" s="2" t="n">
         <v>45333</v>
       </c>
-      <c r="W202" t="inlineStr"/>
-      <c r="X202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -14857,8 +14421,6 @@
       <c r="V203" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W203" t="inlineStr"/>
-      <c r="X203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -14959,8 +14521,6 @@
       <c r="V204" s="2" t="n">
         <v>45342</v>
       </c>
-      <c r="W204" t="inlineStr"/>
-      <c r="X204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -15061,8 +14621,6 @@
       <c r="V205" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W205" t="inlineStr"/>
-      <c r="X205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -15159,8 +14717,6 @@
       <c r="V206" s="2" t="n">
         <v>45278</v>
       </c>
-      <c r="W206" t="inlineStr"/>
-      <c r="X206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -15217,8 +14773,6 @@
       <c r="V207" s="2" t="n">
         <v>45323</v>
       </c>
-      <c r="W207" t="inlineStr"/>
-      <c r="X207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -15283,8 +14837,6 @@
       <c r="V208" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W208" t="inlineStr"/>
-      <c r="X208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -15341,8 +14893,6 @@
       <c r="V209" s="2" t="n">
         <v>45342</v>
       </c>
-      <c r="W209" t="inlineStr"/>
-      <c r="X209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -15403,8 +14953,6 @@
       <c r="V210" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W210" t="inlineStr"/>
-      <c r="X210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -15469,8 +15017,6 @@
       <c r="V211" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W211" t="inlineStr"/>
-      <c r="X211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -15571,12 +15117,6 @@
       <c r="V212" s="2" t="n">
         <v>45345</v>
       </c>
-      <c r="W212" t="inlineStr"/>
-      <c r="X212" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -15673,8 +15213,6 @@
       <c r="V213" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="W213" t="inlineStr"/>
-      <c r="X213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -15743,8 +15281,6 @@
       <c r="V214" s="2" t="n">
         <v>44883</v>
       </c>
-      <c r="W214" t="inlineStr"/>
-      <c r="X214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -15821,8 +15357,6 @@
       <c r="V215" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="W215" t="inlineStr"/>
-      <c r="X215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -15875,12 +15409,6 @@
       <c r="V216" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W216" t="inlineStr"/>
-      <c r="X216" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -15981,8 +15509,6 @@
       <c r="V217" s="2" t="n">
         <v>45345</v>
       </c>
-      <c r="W217" t="inlineStr"/>
-      <c r="X217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -16079,8 +15605,6 @@
       <c r="V218" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="W218" t="inlineStr"/>
-      <c r="X218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -16141,8 +15665,6 @@
       <c r="V219" s="2" t="n">
         <v>45328</v>
       </c>
-      <c r="W219" t="inlineStr"/>
-      <c r="X219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -16203,8 +15725,6 @@
       <c r="V220" s="2" t="n">
         <v>45323</v>
       </c>
-      <c r="W220" t="inlineStr"/>
-      <c r="X220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -16261,8 +15781,6 @@
       <c r="V221" s="2" t="n">
         <v>45330</v>
       </c>
-      <c r="W221" t="inlineStr"/>
-      <c r="X221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -16323,8 +15841,6 @@
       <c r="V222" s="2" t="n">
         <v>45345</v>
       </c>
-      <c r="W222" t="inlineStr"/>
-      <c r="X222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -16381,8 +15897,6 @@
       <c r="V223" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="W223" t="inlineStr"/>
-      <c r="X223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -16439,8 +15953,6 @@
       <c r="V224" s="2" t="n">
         <v>45328</v>
       </c>
-      <c r="W224" t="inlineStr"/>
-      <c r="X224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -16497,8 +16009,6 @@
       <c r="V225" s="2" t="n">
         <v>45330</v>
       </c>
-      <c r="W225" t="inlineStr"/>
-      <c r="X225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -16555,8 +16065,6 @@
       <c r="V226" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W226" t="inlineStr"/>
-      <c r="X226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -16657,8 +16165,6 @@
       <c r="V227" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W227" t="inlineStr"/>
-      <c r="X227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -16743,8 +16249,6 @@
       <c r="V228" s="2" t="n">
         <v>45338</v>
       </c>
-      <c r="W228" t="inlineStr"/>
-      <c r="X228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -16833,8 +16337,6 @@
       <c r="V229" s="2" t="n">
         <v>45341</v>
       </c>
-      <c r="W229" t="inlineStr"/>
-      <c r="X229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -16915,8 +16417,6 @@
       <c r="V230" s="2" t="n">
         <v>45204</v>
       </c>
-      <c r="W230" t="inlineStr"/>
-      <c r="X230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -17001,8 +16501,6 @@
       <c r="V231" s="2" t="n">
         <v>45343</v>
       </c>
-      <c r="W231" t="inlineStr"/>
-      <c r="X231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -17059,8 +16557,6 @@
       <c r="V232" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W232" t="inlineStr"/>
-      <c r="X232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -17157,8 +16653,6 @@
       <c r="V233" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W233" t="inlineStr"/>
-      <c r="X233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -17243,8 +16737,6 @@
       <c r="V234" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="W234" t="inlineStr"/>
-      <c r="X234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -17301,8 +16793,6 @@
       <c r="V235" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W235" t="inlineStr"/>
-      <c r="X235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -17359,8 +16849,6 @@
       <c r="V236" s="2" t="n">
         <v>45351</v>
       </c>
-      <c r="W236" t="inlineStr"/>
-      <c r="X236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -17417,8 +16905,6 @@
       <c r="V237" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W237" t="inlineStr"/>
-      <c r="X237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -17475,8 +16961,6 @@
       <c r="V238" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W238" t="inlineStr"/>
-      <c r="X238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -17533,8 +17017,6 @@
       <c r="V239" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="W239" t="inlineStr"/>
-      <c r="X239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -17591,8 +17073,6 @@
       <c r="V240" s="2" t="n">
         <v>45351</v>
       </c>
-      <c r="W240" t="inlineStr"/>
-      <c r="X240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -17649,8 +17129,6 @@
       <c r="V241" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="W241" t="inlineStr"/>
-      <c r="X241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -17751,8 +17229,6 @@
       <c r="V242" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W242" t="inlineStr"/>
-      <c r="X242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -17853,8 +17329,6 @@
       <c r="V243" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W243" t="inlineStr"/>
-      <c r="X243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -17955,8 +17429,6 @@
       <c r="V244" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="W244" t="inlineStr"/>
-      <c r="X244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -18057,8 +17529,6 @@
       <c r="V245" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W245" t="inlineStr"/>
-      <c r="X245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -18159,8 +17629,6 @@
       <c r="V246" s="2" t="n">
         <v>45337</v>
       </c>
-      <c r="W246" t="inlineStr"/>
-      <c r="X246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -18261,8 +17729,6 @@
       <c r="V247" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W247" t="inlineStr"/>
-      <c r="X247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -18359,8 +17825,6 @@
       <c r="V248" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W248" t="inlineStr"/>
-      <c r="X248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -18461,8 +17925,6 @@
       <c r="V249" s="2" t="n">
         <v>45324</v>
       </c>
-      <c r="W249" t="inlineStr"/>
-      <c r="X249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -18563,8 +18025,6 @@
       <c r="V250" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W250" t="inlineStr"/>
-      <c r="X250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -18665,8 +18125,6 @@
       <c r="V251" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W251" t="inlineStr"/>
-      <c r="X251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -18727,8 +18185,6 @@
       <c r="V252" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W252" t="inlineStr"/>
-      <c r="X252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -18789,8 +18245,6 @@
       <c r="V253" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W253" t="inlineStr"/>
-      <c r="X253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -18851,8 +18305,6 @@
       <c r="V254" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W254" t="inlineStr"/>
-      <c r="X254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -18913,8 +18365,6 @@
       <c r="V255" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W255" t="inlineStr"/>
-      <c r="X255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -18975,8 +18425,6 @@
       <c r="V256" s="2" t="n">
         <v>45330</v>
       </c>
-      <c r="W256" t="inlineStr"/>
-      <c r="X256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -19037,8 +18485,6 @@
       <c r="V257" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W257" t="inlineStr"/>
-      <c r="X257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -19135,8 +18581,6 @@
       <c r="V258" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W258" t="inlineStr"/>
-      <c r="X258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -19237,8 +18681,6 @@
       <c r="V259" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W259" t="inlineStr"/>
-      <c r="X259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -19339,8 +18781,6 @@
       <c r="V260" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W260" t="inlineStr"/>
-      <c r="X260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -19441,8 +18881,6 @@
       <c r="V261" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="W261" t="inlineStr"/>
-      <c r="X261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -19543,8 +18981,6 @@
       <c r="V262" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W262" t="inlineStr"/>
-      <c r="X262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -19645,8 +19081,6 @@
       <c r="V263" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W263" t="inlineStr"/>
-      <c r="X263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -19739,8 +19173,6 @@
       <c r="V264" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W264" t="inlineStr"/>
-      <c r="X264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -19841,8 +19273,6 @@
       <c r="V265" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W265" t="inlineStr"/>
-      <c r="X265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -19907,8 +19337,6 @@
       <c r="V266" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W266" t="inlineStr"/>
-      <c r="X266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -19965,8 +19393,6 @@
       <c r="V267" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W267" t="inlineStr"/>
-      <c r="X267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -20023,8 +19449,6 @@
       <c r="V268" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W268" t="inlineStr"/>
-      <c r="X268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -20081,8 +19505,6 @@
       <c r="V269" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W269" t="inlineStr"/>
-      <c r="X269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -20139,8 +19561,6 @@
       <c r="V270" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W270" t="inlineStr"/>
-      <c r="X270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -20197,8 +19617,6 @@
       <c r="V271" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W271" t="inlineStr"/>
-      <c r="X271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -20299,8 +19717,6 @@
       <c r="V272" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W272" t="inlineStr"/>
-      <c r="X272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -20401,8 +19817,6 @@
       <c r="V273" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W273" t="inlineStr"/>
-      <c r="X273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -20503,8 +19917,6 @@
       <c r="V274" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W274" t="inlineStr"/>
-      <c r="X274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -20601,8 +20013,6 @@
       <c r="V275" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="W275" t="inlineStr"/>
-      <c r="X275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -20695,8 +20105,6 @@
       <c r="V276" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W276" t="inlineStr"/>
-      <c r="X276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -20793,8 +20201,6 @@
       <c r="V277" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W277" t="inlineStr"/>
-      <c r="X277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -20895,8 +20301,6 @@
       <c r="V278" s="2" t="n">
         <v>45303</v>
       </c>
-      <c r="W278" t="inlineStr"/>
-      <c r="X278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -20997,8 +20401,6 @@
       <c r="V279" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W279" t="inlineStr"/>
-      <c r="X279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -21091,8 +20493,6 @@
       <c r="V280" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="W280" t="inlineStr"/>
-      <c r="X280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -21149,8 +20549,6 @@
       <c r="V281" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="W281" t="inlineStr"/>
-      <c r="X281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -21211,8 +20609,6 @@
       <c r="V282" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W282" t="inlineStr"/>
-      <c r="X282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -21297,8 +20693,6 @@
       <c r="V283" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="W283" t="inlineStr"/>
-      <c r="X283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -21355,8 +20749,6 @@
       <c r="V284" s="2" t="n">
         <v>45337</v>
       </c>
-      <c r="W284" t="inlineStr"/>
-      <c r="X284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -21413,8 +20805,6 @@
       <c r="V285" s="2" t="n">
         <v>45331</v>
       </c>
-      <c r="W285" t="inlineStr"/>
-      <c r="X285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -21471,8 +20861,6 @@
       <c r="V286" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="W286" t="inlineStr"/>
-      <c r="X286" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Consolidado_final.xlsx
+++ b/Consolidado_final.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V286"/>
+  <dimension ref="A1:X286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,16 @@
           <t>Fecha</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 22</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -581,6 +591,8 @@
       <c r="V2" s="2" t="n">
         <v>45323</v>
       </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -681,6 +693,8 @@
       <c r="V3" s="2" t="n">
         <v>45170</v>
       </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -781,6 +795,8 @@
       <c r="V4" s="2" t="n">
         <v>45341</v>
       </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -877,6 +893,8 @@
       <c r="V5" s="2" t="n">
         <v>45337</v>
       </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -977,6 +995,8 @@
       <c r="V6" s="2" t="n">
         <v>45342</v>
       </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1069,6 +1089,8 @@
       <c r="V7" s="2" t="n">
         <v>45323</v>
       </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1141,6 +1163,8 @@
       <c r="V8" s="2" t="n">
         <v>45170</v>
       </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1241,6 +1265,8 @@
       <c r="V9" s="2" t="n">
         <v>45341</v>
       </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1337,6 +1363,8 @@
       <c r="V10" s="2" t="n">
         <v>45337</v>
       </c>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1437,6 +1465,8 @@
       <c r="V11" s="2" t="n">
         <v>45342</v>
       </c>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1493,6 +1523,8 @@
       <c r="V12" s="2" t="n">
         <v>45341</v>
       </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1549,6 +1581,8 @@
       <c r="V13" s="2" t="n">
         <v>45337</v>
       </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1605,6 +1639,8 @@
       <c r="V14" s="2" t="n">
         <v>45342</v>
       </c>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1661,6 +1697,8 @@
       <c r="V15" s="2" t="n">
         <v>45351</v>
       </c>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1717,6 +1755,8 @@
       <c r="V16" s="2" t="n">
         <v>45350</v>
       </c>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1817,6 +1857,8 @@
       <c r="V17" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1909,6 +1951,8 @@
       <c r="V18" s="2" t="n">
         <v>45327</v>
       </c>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1965,6 +2009,8 @@
       <c r="V19" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2025,6 +2071,8 @@
       <c r="V20" s="2" t="n">
         <v>45331</v>
       </c>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2113,6 +2161,8 @@
       <c r="V21" s="2" t="n">
         <v>45089</v>
       </c>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2209,6 +2259,8 @@
       <c r="V22" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2301,6 +2353,8 @@
       <c r="V23" s="2" t="n">
         <v>45327</v>
       </c>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2369,6 +2423,8 @@
       <c r="V24" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2433,6 +2489,8 @@
       <c r="V25" s="2" t="n">
         <v>45331</v>
       </c>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2489,6 +2547,8 @@
       <c r="V26" s="2" t="n">
         <v>45329</v>
       </c>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2545,6 +2605,8 @@
       <c r="V27" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2601,6 +2663,8 @@
       <c r="V28" s="2" t="n">
         <v>45327</v>
       </c>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2657,6 +2721,8 @@
       <c r="V29" s="2" t="n">
         <v>45331</v>
       </c>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2713,6 +2779,8 @@
       <c r="V30" s="2" t="n">
         <v>45328</v>
       </c>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2773,6 +2841,8 @@
       <c r="V31" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2849,6 +2919,8 @@
       <c r="V32" s="2" t="n">
         <v>45327</v>
       </c>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2905,6 +2977,8 @@
       <c r="V33" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2989,6 +3063,8 @@
       <c r="V34" s="2" t="n">
         <v>45330</v>
       </c>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3041,6 +3117,12 @@
       <c r="V35" s="2" t="n">
         <v>45287</v>
       </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3117,6 +3199,8 @@
       <c r="V36" s="2" t="n">
         <v>45328</v>
       </c>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3193,6 +3277,8 @@
       <c r="V37" s="2" t="n">
         <v>45327</v>
       </c>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3249,6 +3335,8 @@
       <c r="V38" s="2" t="n">
         <v>45327</v>
       </c>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3305,6 +3393,8 @@
       <c r="V39" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3361,6 +3451,8 @@
       <c r="V40" s="2" t="n">
         <v>45327</v>
       </c>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3417,6 +3509,8 @@
       <c r="V41" s="2" t="n">
         <v>45324</v>
       </c>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3473,6 +3567,8 @@
       <c r="V42" s="2" t="n">
         <v>45342</v>
       </c>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3529,6 +3625,8 @@
       <c r="V43" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3585,6 +3683,8 @@
       <c r="V44" s="2" t="n">
         <v>45323</v>
       </c>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3641,6 +3741,8 @@
       <c r="V45" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3697,6 +3799,8 @@
       <c r="V46" s="2" t="n">
         <v>45350</v>
       </c>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3769,6 +3873,8 @@
       <c r="V47" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3857,6 +3963,8 @@
       <c r="V48" s="2" t="n">
         <v>45327</v>
       </c>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3913,6 +4021,8 @@
       <c r="V49" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3969,6 +4079,8 @@
       <c r="V50" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4053,6 +4165,8 @@
       <c r="V51" s="2" t="n">
         <v>45330</v>
       </c>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4117,6 +4231,8 @@
       <c r="V52" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4197,6 +4313,8 @@
       <c r="V53" s="2" t="n">
         <v>45327</v>
       </c>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4273,6 +4391,8 @@
       <c r="V54" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4329,6 +4449,8 @@
       <c r="V55" s="2" t="n">
         <v>45328</v>
       </c>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4385,6 +4507,8 @@
       <c r="V56" s="2" t="n">
         <v>45327</v>
       </c>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4441,6 +4565,8 @@
       <c r="V57" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4497,6 +4623,8 @@
       <c r="V58" s="2" t="n">
         <v>45327</v>
       </c>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4553,6 +4681,8 @@
       <c r="V59" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4609,6 +4739,8 @@
       <c r="V60" s="2" t="n">
         <v>45352</v>
       </c>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4665,6 +4797,8 @@
       <c r="V61" s="2" t="n">
         <v>45342</v>
       </c>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4721,6 +4855,8 @@
       <c r="V62" s="2" t="n">
         <v>45352</v>
       </c>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4781,6 +4917,8 @@
       <c r="V63" s="2" t="n">
         <v>45327</v>
       </c>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4837,6 +4975,8 @@
       <c r="V64" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4893,6 +5033,8 @@
       <c r="V65" s="2" t="n">
         <v>45324</v>
       </c>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4949,6 +5091,8 @@
       <c r="V66" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5005,6 +5149,8 @@
       <c r="V67" s="2" t="n">
         <v>45331</v>
       </c>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5061,6 +5207,8 @@
       <c r="V68" s="2" t="n">
         <v>45327</v>
       </c>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5117,6 +5265,8 @@
       <c r="V69" s="2" t="n">
         <v>45327</v>
       </c>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5173,6 +5323,8 @@
       <c r="V70" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5229,6 +5381,8 @@
       <c r="V71" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5285,6 +5439,8 @@
       <c r="V72" s="2" t="n">
         <v>45352</v>
       </c>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5341,6 +5497,8 @@
       <c r="V73" s="2" t="n">
         <v>45327</v>
       </c>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5397,6 +5555,8 @@
       <c r="V74" s="2" t="n">
         <v>45323</v>
       </c>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5453,6 +5613,8 @@
       <c r="V75" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5509,6 +5671,8 @@
       <c r="V76" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5593,6 +5757,8 @@
       <c r="V77" s="2" t="n">
         <v>45329</v>
       </c>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5653,6 +5819,8 @@
       <c r="V78" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5741,6 +5909,8 @@
       <c r="V79" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5837,6 +6007,8 @@
       <c r="V80" s="2" t="n">
         <v>45341</v>
       </c>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5933,6 +6105,8 @@
       <c r="V81" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6005,6 +6179,8 @@
       <c r="V82" s="2" t="n">
         <v>45329</v>
       </c>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6073,6 +6249,8 @@
       <c r="V83" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6133,6 +6311,8 @@
       <c r="V84" s="2" t="n">
         <v>45330</v>
       </c>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6193,6 +6373,8 @@
       <c r="V85" s="2" t="n">
         <v>45329</v>
       </c>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6249,6 +6431,8 @@
       <c r="V86" s="2" t="n">
         <v>45303</v>
       </c>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6305,6 +6489,8 @@
       <c r="V87" s="2" t="n">
         <v>45329</v>
       </c>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6361,6 +6547,8 @@
       <c r="V88" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6417,6 +6605,8 @@
       <c r="V89" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6473,6 +6663,8 @@
       <c r="V90" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6529,6 +6721,8 @@
       <c r="V91" s="2" t="n">
         <v>45337</v>
       </c>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6589,6 +6783,8 @@
       <c r="V92" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6645,6 +6841,8 @@
       <c r="V93" s="2" t="n">
         <v>45341</v>
       </c>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6705,6 +6903,8 @@
       <c r="V94" s="2" t="n">
         <v>45337</v>
       </c>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6761,6 +6961,8 @@
       <c r="V95" s="2" t="n">
         <v>45327</v>
       </c>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6813,6 +7015,12 @@
       <c r="V96" s="2" t="n">
         <v>45330</v>
       </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6869,6 +7077,8 @@
       <c r="V97" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6925,6 +7135,8 @@
       <c r="V98" s="2" t="n">
         <v>45328</v>
       </c>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6981,6 +7193,8 @@
       <c r="V99" s="2" t="n">
         <v>45352</v>
       </c>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7037,6 +7251,8 @@
       <c r="V100" s="2" t="n">
         <v>45341</v>
       </c>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7093,6 +7309,8 @@
       <c r="V101" s="2" t="n">
         <v>45324</v>
       </c>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7149,6 +7367,8 @@
       <c r="V102" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7201,6 +7421,12 @@
       <c r="V103" s="2" t="n">
         <v>45329</v>
       </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7257,6 +7483,8 @@
       <c r="V104" s="2" t="n">
         <v>45330</v>
       </c>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7313,6 +7541,8 @@
       <c r="V105" s="2" t="n">
         <v>45329</v>
       </c>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7369,6 +7599,8 @@
       <c r="V106" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7425,6 +7657,8 @@
       <c r="V107" s="2" t="n">
         <v>45323</v>
       </c>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7481,6 +7715,8 @@
       <c r="V108" s="2" t="n">
         <v>44722</v>
       </c>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7537,6 +7773,8 @@
       <c r="V109" s="2" t="n">
         <v>45324</v>
       </c>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7593,6 +7831,8 @@
       <c r="V110" s="2" t="n">
         <v>45328</v>
       </c>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7661,6 +7901,8 @@
       <c r="V111" s="2" t="n">
         <v>45329</v>
       </c>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7717,6 +7959,8 @@
       <c r="V112" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7773,6 +8017,8 @@
       <c r="V113" s="2" t="n">
         <v>45323</v>
       </c>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7829,6 +8075,8 @@
       <c r="V114" s="2" t="n">
         <v>45352</v>
       </c>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7885,6 +8133,8 @@
       <c r="V115" s="2" t="n">
         <v>45324</v>
       </c>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7941,6 +8191,8 @@
       <c r="V116" s="2" t="n">
         <v>45295</v>
       </c>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7997,6 +8249,8 @@
       <c r="V117" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8053,6 +8307,8 @@
       <c r="V118" s="2" t="n">
         <v>45324</v>
       </c>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8105,6 +8361,12 @@
       <c r="V119" s="2" t="n">
         <v>45329</v>
       </c>
+      <c r="W119" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8161,6 +8423,8 @@
       <c r="V120" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8217,6 +8481,8 @@
       <c r="V121" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8277,6 +8543,8 @@
       <c r="V122" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8333,6 +8601,8 @@
       <c r="V123" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8389,6 +8659,8 @@
       <c r="V124" s="2" t="n">
         <v>45346</v>
       </c>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8449,6 +8721,8 @@
       <c r="V125" s="2" t="n">
         <v>45329</v>
       </c>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8505,6 +8779,8 @@
       <c r="V126" s="2" t="n">
         <v>45348</v>
       </c>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8573,6 +8849,8 @@
       <c r="V127" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8629,6 +8907,8 @@
       <c r="V128" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8685,6 +8965,8 @@
       <c r="V129" s="2" t="n">
         <v>45352</v>
       </c>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8741,6 +9023,8 @@
       <c r="V130" s="2" t="n">
         <v>45331</v>
       </c>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8797,6 +9081,8 @@
       <c r="V131" s="2" t="n">
         <v>45346</v>
       </c>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8853,6 +9139,8 @@
       <c r="V132" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8909,6 +9197,8 @@
       <c r="V133" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8965,6 +9255,8 @@
       <c r="V134" s="2" t="n">
         <v>45324</v>
       </c>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9021,6 +9313,8 @@
       <c r="V135" s="2" t="n">
         <v>45331</v>
       </c>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9077,6 +9371,8 @@
       <c r="V136" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9177,6 +9473,8 @@
       <c r="V137" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9277,6 +9575,8 @@
       <c r="V138" s="2" t="n">
         <v>45328</v>
       </c>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9377,6 +9677,8 @@
       <c r="V139" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -9469,6 +9771,8 @@
       <c r="V140" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -9525,6 +9829,8 @@
       <c r="V141" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -9625,6 +9931,8 @@
       <c r="V142" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -9681,6 +9989,8 @@
       <c r="V143" s="2" t="n">
         <v>45331</v>
       </c>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -9733,6 +10043,12 @@
       <c r="V144" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W144" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9821,6 +10137,8 @@
       <c r="V145" s="2" t="n">
         <v>45328</v>
       </c>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9921,6 +10239,8 @@
       <c r="V146" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9977,6 +10297,8 @@
       <c r="V147" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10033,6 +10355,8 @@
       <c r="V148" s="2" t="n">
         <v>45328</v>
       </c>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10089,6 +10413,8 @@
       <c r="V149" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10145,6 +10471,8 @@
       <c r="V150" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10205,6 +10533,8 @@
       <c r="V151" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10261,6 +10591,8 @@
       <c r="V152" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -10337,6 +10669,8 @@
       <c r="V153" s="2" t="n">
         <v>45329</v>
       </c>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -10397,6 +10731,8 @@
       <c r="V154" s="2" t="n">
         <v>45329</v>
       </c>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -10449,6 +10785,12 @@
       <c r="V155" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -10509,6 +10851,8 @@
       <c r="V156" s="2" t="n">
         <v>45327</v>
       </c>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -10565,6 +10909,8 @@
       <c r="V157" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -10657,6 +11003,8 @@
       <c r="V158" s="2" t="n">
         <v>45329</v>
       </c>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -10713,6 +11061,8 @@
       <c r="V159" s="2" t="n">
         <v>45349</v>
       </c>
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -10769,6 +11119,8 @@
       <c r="V160" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -10825,6 +11177,8 @@
       <c r="V161" s="2" t="n">
         <v>45352</v>
       </c>
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -10881,6 +11235,8 @@
       <c r="V162" s="2" t="n">
         <v>45329</v>
       </c>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -10937,6 +11293,8 @@
       <c r="V163" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -10993,6 +11351,8 @@
       <c r="V164" s="2" t="n">
         <v>45324</v>
       </c>
+      <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11049,6 +11409,8 @@
       <c r="V165" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -11105,6 +11467,8 @@
       <c r="V166" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -11205,6 +11569,8 @@
       <c r="V167" s="2" t="n">
         <v>45314</v>
       </c>
+      <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -11305,6 +11671,8 @@
       <c r="V168" s="2" t="n">
         <v>45337</v>
       </c>
+      <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -11405,6 +11773,8 @@
       <c r="V169" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -11505,6 +11875,8 @@
       <c r="V170" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -11605,6 +11977,8 @@
       <c r="V171" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -11705,6 +12079,8 @@
       <c r="V172" s="2" t="n">
         <v>45339</v>
       </c>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -11805,6 +12181,8 @@
       <c r="V173" s="2" t="n">
         <v>45314</v>
       </c>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -11905,6 +12283,8 @@
       <c r="V174" s="2" t="n">
         <v>45337</v>
       </c>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -12005,6 +12385,8 @@
       <c r="V175" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -12105,6 +12487,8 @@
       <c r="V176" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -12161,6 +12545,8 @@
       <c r="V177" s="2" t="n">
         <v>45314</v>
       </c>
+      <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -12221,6 +12607,8 @@
       <c r="V178" s="2" t="n">
         <v>45337</v>
       </c>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -12281,6 +12669,8 @@
       <c r="V179" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -12341,6 +12731,8 @@
       <c r="V180" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -12401,6 +12793,8 @@
       <c r="V181" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -12501,6 +12895,8 @@
       <c r="V182" s="2" t="n">
         <v>45329</v>
       </c>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -12601,6 +12997,8 @@
       <c r="V183" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -12701,6 +13099,8 @@
       <c r="V184" s="2" t="n">
         <v>45331</v>
       </c>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -12801,6 +13201,8 @@
       <c r="V185" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -12901,6 +13303,8 @@
       <c r="V186" s="2" t="n">
         <v>45351</v>
       </c>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -13001,6 +13405,8 @@
       <c r="V187" s="2" t="n">
         <v>45352</v>
       </c>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -13101,6 +13507,8 @@
       <c r="V188" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -13201,6 +13609,8 @@
       <c r="V189" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -13301,6 +13711,8 @@
       <c r="V190" s="2" t="n">
         <v>45351</v>
       </c>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -13401,6 +13813,8 @@
       <c r="V191" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -13469,6 +13883,8 @@
       <c r="V192" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -13533,6 +13949,8 @@
       <c r="V193" s="2" t="n">
         <v>45351</v>
       </c>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -13593,6 +14011,8 @@
       <c r="V194" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -13653,6 +14073,8 @@
       <c r="V195" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -13721,6 +14143,8 @@
       <c r="V196" s="2" t="n">
         <v>45331</v>
       </c>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -13821,6 +14245,8 @@
       <c r="V197" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -13921,6 +14347,8 @@
       <c r="V198" s="2" t="n">
         <v>45342</v>
       </c>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -14021,6 +14449,8 @@
       <c r="V199" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W199" t="inlineStr"/>
+      <c r="X199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -14121,6 +14551,8 @@
       <c r="V200" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W200" t="inlineStr"/>
+      <c r="X200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -14221,6 +14653,8 @@
       <c r="V201" s="2" t="n">
         <v>45278</v>
       </c>
+      <c r="W201" t="inlineStr"/>
+      <c r="X201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -14321,6 +14755,8 @@
       <c r="V202" s="2" t="n">
         <v>45333</v>
       </c>
+      <c r="W202" t="inlineStr"/>
+      <c r="X202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -14421,6 +14857,8 @@
       <c r="V203" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W203" t="inlineStr"/>
+      <c r="X203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -14521,6 +14959,8 @@
       <c r="V204" s="2" t="n">
         <v>45342</v>
       </c>
+      <c r="W204" t="inlineStr"/>
+      <c r="X204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -14621,6 +15061,8 @@
       <c r="V205" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -14717,6 +15159,8 @@
       <c r="V206" s="2" t="n">
         <v>45278</v>
       </c>
+      <c r="W206" t="inlineStr"/>
+      <c r="X206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -14773,6 +15217,8 @@
       <c r="V207" s="2" t="n">
         <v>45323</v>
       </c>
+      <c r="W207" t="inlineStr"/>
+      <c r="X207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -14837,6 +15283,8 @@
       <c r="V208" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W208" t="inlineStr"/>
+      <c r="X208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -14893,6 +15341,8 @@
       <c r="V209" s="2" t="n">
         <v>45342</v>
       </c>
+      <c r="W209" t="inlineStr"/>
+      <c r="X209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -14953,6 +15403,8 @@
       <c r="V210" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W210" t="inlineStr"/>
+      <c r="X210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -15017,6 +15469,8 @@
       <c r="V211" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W211" t="inlineStr"/>
+      <c r="X211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -15117,6 +15571,12 @@
       <c r="V212" s="2" t="n">
         <v>45345</v>
       </c>
+      <c r="W212" t="inlineStr"/>
+      <c r="X212" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -15213,6 +15673,8 @@
       <c r="V213" s="2" t="n">
         <v>45329</v>
       </c>
+      <c r="W213" t="inlineStr"/>
+      <c r="X213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -15281,6 +15743,8 @@
       <c r="V214" s="2" t="n">
         <v>44883</v>
       </c>
+      <c r="W214" t="inlineStr"/>
+      <c r="X214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -15357,6 +15821,8 @@
       <c r="V215" s="2" t="n">
         <v>45329</v>
       </c>
+      <c r="W215" t="inlineStr"/>
+      <c r="X215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -15409,6 +15875,12 @@
       <c r="V216" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W216" t="inlineStr"/>
+      <c r="X216" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -15509,6 +15981,8 @@
       <c r="V217" s="2" t="n">
         <v>45345</v>
       </c>
+      <c r="W217" t="inlineStr"/>
+      <c r="X217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -15605,6 +16079,8 @@
       <c r="V218" s="2" t="n">
         <v>45329</v>
       </c>
+      <c r="W218" t="inlineStr"/>
+      <c r="X218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -15665,6 +16141,8 @@
       <c r="V219" s="2" t="n">
         <v>45328</v>
       </c>
+      <c r="W219" t="inlineStr"/>
+      <c r="X219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -15725,6 +16203,8 @@
       <c r="V220" s="2" t="n">
         <v>45323</v>
       </c>
+      <c r="W220" t="inlineStr"/>
+      <c r="X220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -15781,6 +16261,8 @@
       <c r="V221" s="2" t="n">
         <v>45330</v>
       </c>
+      <c r="W221" t="inlineStr"/>
+      <c r="X221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -15841,6 +16323,8 @@
       <c r="V222" s="2" t="n">
         <v>45345</v>
       </c>
+      <c r="W222" t="inlineStr"/>
+      <c r="X222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -15897,6 +16381,8 @@
       <c r="V223" s="2" t="n">
         <v>45329</v>
       </c>
+      <c r="W223" t="inlineStr"/>
+      <c r="X223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -15953,6 +16439,8 @@
       <c r="V224" s="2" t="n">
         <v>45328</v>
       </c>
+      <c r="W224" t="inlineStr"/>
+      <c r="X224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -16009,6 +16497,8 @@
       <c r="V225" s="2" t="n">
         <v>45330</v>
       </c>
+      <c r="W225" t="inlineStr"/>
+      <c r="X225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -16065,6 +16555,8 @@
       <c r="V226" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W226" t="inlineStr"/>
+      <c r="X226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -16165,6 +16657,8 @@
       <c r="V227" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W227" t="inlineStr"/>
+      <c r="X227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -16249,6 +16743,8 @@
       <c r="V228" s="2" t="n">
         <v>45338</v>
       </c>
+      <c r="W228" t="inlineStr"/>
+      <c r="X228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -16337,6 +16833,8 @@
       <c r="V229" s="2" t="n">
         <v>45341</v>
       </c>
+      <c r="W229" t="inlineStr"/>
+      <c r="X229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -16417,6 +16915,8 @@
       <c r="V230" s="2" t="n">
         <v>45204</v>
       </c>
+      <c r="W230" t="inlineStr"/>
+      <c r="X230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -16501,6 +17001,8 @@
       <c r="V231" s="2" t="n">
         <v>45343</v>
       </c>
+      <c r="W231" t="inlineStr"/>
+      <c r="X231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -16557,6 +17059,8 @@
       <c r="V232" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W232" t="inlineStr"/>
+      <c r="X232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -16653,6 +17157,8 @@
       <c r="V233" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W233" t="inlineStr"/>
+      <c r="X233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -16737,6 +17243,8 @@
       <c r="V234" s="2" t="n">
         <v>45352</v>
       </c>
+      <c r="W234" t="inlineStr"/>
+      <c r="X234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -16793,6 +17301,8 @@
       <c r="V235" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W235" t="inlineStr"/>
+      <c r="X235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -16849,6 +17359,8 @@
       <c r="V236" s="2" t="n">
         <v>45351</v>
       </c>
+      <c r="W236" t="inlineStr"/>
+      <c r="X236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -16905,6 +17417,8 @@
       <c r="V237" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W237" t="inlineStr"/>
+      <c r="X237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -16961,6 +17475,8 @@
       <c r="V238" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W238" t="inlineStr"/>
+      <c r="X238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -17017,6 +17533,8 @@
       <c r="V239" s="2" t="n">
         <v>45352</v>
       </c>
+      <c r="W239" t="inlineStr"/>
+      <c r="X239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -17073,6 +17591,8 @@
       <c r="V240" s="2" t="n">
         <v>45351</v>
       </c>
+      <c r="W240" t="inlineStr"/>
+      <c r="X240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -17129,6 +17649,8 @@
       <c r="V241" s="2" t="n">
         <v>45329</v>
       </c>
+      <c r="W241" t="inlineStr"/>
+      <c r="X241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -17229,6 +17751,8 @@
       <c r="V242" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W242" t="inlineStr"/>
+      <c r="X242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -17329,6 +17853,8 @@
       <c r="V243" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W243" t="inlineStr"/>
+      <c r="X243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -17429,6 +17955,8 @@
       <c r="V244" s="2" t="n">
         <v>45352</v>
       </c>
+      <c r="W244" t="inlineStr"/>
+      <c r="X244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -17529,6 +18057,8 @@
       <c r="V245" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W245" t="inlineStr"/>
+      <c r="X245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -17629,6 +18159,8 @@
       <c r="V246" s="2" t="n">
         <v>45337</v>
       </c>
+      <c r="W246" t="inlineStr"/>
+      <c r="X246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -17729,6 +18261,8 @@
       <c r="V247" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W247" t="inlineStr"/>
+      <c r="X247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -17825,6 +18359,8 @@
       <c r="V248" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W248" t="inlineStr"/>
+      <c r="X248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -17925,6 +18461,8 @@
       <c r="V249" s="2" t="n">
         <v>45324</v>
       </c>
+      <c r="W249" t="inlineStr"/>
+      <c r="X249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -18025,6 +18563,8 @@
       <c r="V250" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W250" t="inlineStr"/>
+      <c r="X250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -18125,6 +18665,8 @@
       <c r="V251" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W251" t="inlineStr"/>
+      <c r="X251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -18185,6 +18727,8 @@
       <c r="V252" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W252" t="inlineStr"/>
+      <c r="X252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -18245,6 +18789,8 @@
       <c r="V253" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W253" t="inlineStr"/>
+      <c r="X253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -18305,6 +18851,8 @@
       <c r="V254" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W254" t="inlineStr"/>
+      <c r="X254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -18365,6 +18913,8 @@
       <c r="V255" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W255" t="inlineStr"/>
+      <c r="X255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -18425,6 +18975,8 @@
       <c r="V256" s="2" t="n">
         <v>45330</v>
       </c>
+      <c r="W256" t="inlineStr"/>
+      <c r="X256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -18485,6 +19037,8 @@
       <c r="V257" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W257" t="inlineStr"/>
+      <c r="X257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -18581,6 +19135,8 @@
       <c r="V258" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W258" t="inlineStr"/>
+      <c r="X258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -18681,6 +19237,8 @@
       <c r="V259" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W259" t="inlineStr"/>
+      <c r="X259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -18781,6 +19339,8 @@
       <c r="V260" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W260" t="inlineStr"/>
+      <c r="X260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -18881,6 +19441,8 @@
       <c r="V261" s="2" t="n">
         <v>45352</v>
       </c>
+      <c r="W261" t="inlineStr"/>
+      <c r="X261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -18981,6 +19543,8 @@
       <c r="V262" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W262" t="inlineStr"/>
+      <c r="X262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -19081,6 +19645,8 @@
       <c r="V263" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W263" t="inlineStr"/>
+      <c r="X263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -19173,6 +19739,8 @@
       <c r="V264" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W264" t="inlineStr"/>
+      <c r="X264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -19273,6 +19841,8 @@
       <c r="V265" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W265" t="inlineStr"/>
+      <c r="X265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -19337,6 +19907,8 @@
       <c r="V266" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W266" t="inlineStr"/>
+      <c r="X266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -19393,6 +19965,8 @@
       <c r="V267" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W267" t="inlineStr"/>
+      <c r="X267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -19449,6 +20023,8 @@
       <c r="V268" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W268" t="inlineStr"/>
+      <c r="X268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -19505,6 +20081,8 @@
       <c r="V269" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W269" t="inlineStr"/>
+      <c r="X269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -19561,6 +20139,8 @@
       <c r="V270" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W270" t="inlineStr"/>
+      <c r="X270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -19617,6 +20197,8 @@
       <c r="V271" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W271" t="inlineStr"/>
+      <c r="X271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -19717,6 +20299,8 @@
       <c r="V272" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W272" t="inlineStr"/>
+      <c r="X272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -19817,6 +20401,8 @@
       <c r="V273" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W273" t="inlineStr"/>
+      <c r="X273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -19917,6 +20503,8 @@
       <c r="V274" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W274" t="inlineStr"/>
+      <c r="X274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -20013,6 +20601,8 @@
       <c r="V275" s="2" t="n">
         <v>45327</v>
       </c>
+      <c r="W275" t="inlineStr"/>
+      <c r="X275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -20105,6 +20695,8 @@
       <c r="V276" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W276" t="inlineStr"/>
+      <c r="X276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -20201,6 +20793,8 @@
       <c r="V277" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W277" t="inlineStr"/>
+      <c r="X277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -20301,6 +20895,8 @@
       <c r="V278" s="2" t="n">
         <v>45303</v>
       </c>
+      <c r="W278" t="inlineStr"/>
+      <c r="X278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -20401,6 +20997,8 @@
       <c r="V279" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W279" t="inlineStr"/>
+      <c r="X279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -20493,6 +21091,8 @@
       <c r="V280" s="2" t="n">
         <v>45327</v>
       </c>
+      <c r="W280" t="inlineStr"/>
+      <c r="X280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -20549,6 +21149,8 @@
       <c r="V281" s="2" t="n">
         <v>45334</v>
       </c>
+      <c r="W281" t="inlineStr"/>
+      <c r="X281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -20609,6 +21211,8 @@
       <c r="V282" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W282" t="inlineStr"/>
+      <c r="X282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -20693,6 +21297,8 @@
       <c r="V283" s="2" t="n">
         <v>45336</v>
       </c>
+      <c r="W283" t="inlineStr"/>
+      <c r="X283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -20749,6 +21355,8 @@
       <c r="V284" s="2" t="n">
         <v>45337</v>
       </c>
+      <c r="W284" t="inlineStr"/>
+      <c r="X284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -20805,6 +21413,8 @@
       <c r="V285" s="2" t="n">
         <v>45331</v>
       </c>
+      <c r="W285" t="inlineStr"/>
+      <c r="X285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -20861,6 +21471,8 @@
       <c r="V286" s="2" t="n">
         <v>45335</v>
       </c>
+      <c r="W286" t="inlineStr"/>
+      <c r="X286" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
